--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.25329177817043</v>
+        <v>5.235186000000001</v>
       </c>
       <c r="H2">
-        <v>4.25329177817043</v>
+        <v>15.705558</v>
       </c>
       <c r="I2">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="J2">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>54.3018257750136</v>
+        <v>64.44050866666667</v>
       </c>
       <c r="N2">
-        <v>54.3018257750136</v>
+        <v>193.321526</v>
       </c>
       <c r="O2">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="P2">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="Q2">
-        <v>230.9615091085085</v>
+        <v>337.3580488046121</v>
       </c>
       <c r="R2">
-        <v>230.9615091085085</v>
+        <v>3036.222439241508</v>
       </c>
       <c r="S2">
-        <v>0.05144685479512775</v>
+        <v>0.06376372063280417</v>
       </c>
       <c r="T2">
-        <v>0.05144685479512775</v>
+        <v>0.06376372063280418</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.25329177817043</v>
+        <v>5.235186000000001</v>
       </c>
       <c r="H3">
-        <v>4.25329177817043</v>
+        <v>15.705558</v>
       </c>
       <c r="I3">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="J3">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.45105424940518</v>
+        <v>2.457277</v>
       </c>
       <c r="N3">
-        <v>2.45105424940518</v>
+        <v>7.371831</v>
       </c>
       <c r="O3">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552172</v>
       </c>
       <c r="P3">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552173</v>
       </c>
       <c r="Q3">
-        <v>10.42504888684475</v>
+        <v>12.864302148522</v>
       </c>
       <c r="R3">
-        <v>10.42504888684475</v>
+        <v>115.778719336698</v>
       </c>
       <c r="S3">
-        <v>0.002322187702980556</v>
+        <v>0.00243146938761618</v>
       </c>
       <c r="T3">
-        <v>0.002322187702980556</v>
+        <v>0.00243146938761618</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.25329177817043</v>
+        <v>5.235186000000001</v>
       </c>
       <c r="H4">
-        <v>4.25329177817043</v>
+        <v>15.705558</v>
       </c>
       <c r="I4">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="J4">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.5761310562531</v>
+        <v>19.791731</v>
       </c>
       <c r="N4">
-        <v>18.5761310562531</v>
+        <v>59.375193</v>
       </c>
       <c r="O4">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="P4">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="Q4">
-        <v>79.00970549177769</v>
+        <v>103.613393046966</v>
       </c>
       <c r="R4">
-        <v>79.00970549177769</v>
+        <v>932.5205374226941</v>
       </c>
       <c r="S4">
-        <v>0.01759947300972823</v>
+        <v>0.0195838678563443</v>
       </c>
       <c r="T4">
-        <v>0.01759947300972823</v>
+        <v>0.01958386785634431</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.25329177817043</v>
+        <v>5.235186000000001</v>
       </c>
       <c r="H5">
-        <v>4.25329177817043</v>
+        <v>15.705558</v>
       </c>
       <c r="I5">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="J5">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.1747794324574</v>
+        <v>24.85018033333334</v>
       </c>
       <c r="N5">
-        <v>24.1747794324574</v>
+        <v>74.55054100000001</v>
       </c>
       <c r="O5">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="P5">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="Q5">
-        <v>102.8223905991547</v>
+        <v>130.095316178542</v>
       </c>
       <c r="R5">
-        <v>102.8223905991547</v>
+        <v>1170.857845606878</v>
       </c>
       <c r="S5">
-        <v>0.02290376703573307</v>
+        <v>0.02458919070061765</v>
       </c>
       <c r="T5">
-        <v>0.02290376703573307</v>
+        <v>0.02458919070061765</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.25329177817043</v>
+        <v>5.235186000000001</v>
       </c>
       <c r="H6">
-        <v>4.25329177817043</v>
+        <v>15.705558</v>
       </c>
       <c r="I6">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="J6">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.42267588931362</v>
+        <v>7.452280999999999</v>
       </c>
       <c r="N6">
-        <v>7.42267588931362</v>
+        <v>22.356843</v>
       </c>
       <c r="O6">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="P6">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="Q6">
-        <v>31.57080633204151</v>
+        <v>39.014077159266</v>
       </c>
       <c r="R6">
-        <v>31.57080633204151</v>
+        <v>351.126694433394</v>
       </c>
       <c r="S6">
-        <v>0.007032421529453038</v>
+        <v>0.007374013234736535</v>
       </c>
       <c r="T6">
-        <v>0.007032421529453038</v>
+        <v>0.007374013234736536</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.25329177817043</v>
+        <v>5.235186000000001</v>
       </c>
       <c r="H7">
-        <v>4.25329177817043</v>
+        <v>15.705558</v>
       </c>
       <c r="I7">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="J7">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.78654529657293</v>
+        <v>2.960099333333333</v>
       </c>
       <c r="N7">
-        <v>2.78654529657293</v>
+        <v>8.880298</v>
       </c>
       <c r="O7">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632052</v>
       </c>
       <c r="P7">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632051</v>
       </c>
       <c r="Q7">
-        <v>11.85199019941313</v>
+        <v>15.496670588476</v>
       </c>
       <c r="R7">
-        <v>11.85199019941313</v>
+        <v>139.470035296284</v>
       </c>
       <c r="S7">
-        <v>0.002640039984047807</v>
+        <v>0.002929010816974668</v>
       </c>
       <c r="T7">
-        <v>0.002640039984047807</v>
+        <v>0.002929010816974668</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.56528475610256</v>
+        <v>9.603329333333333</v>
       </c>
       <c r="H8">
-        <v>9.56528475610256</v>
+        <v>28.809988</v>
       </c>
       <c r="I8">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="J8">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>54.3018257750136</v>
+        <v>64.44050866666667</v>
       </c>
       <c r="N8">
-        <v>54.3018257750136</v>
+        <v>193.321526</v>
       </c>
       <c r="O8">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="P8">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="Q8">
-        <v>519.4124263142746</v>
+        <v>618.8434271335209</v>
       </c>
       <c r="R8">
-        <v>519.4124263142746</v>
+        <v>5569.590844201688</v>
       </c>
       <c r="S8">
-        <v>0.115699519710105</v>
+        <v>0.1169670015077745</v>
       </c>
       <c r="T8">
-        <v>0.115699519710105</v>
+        <v>0.1169670015077745</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.56528475610256</v>
+        <v>9.603329333333333</v>
       </c>
       <c r="H9">
-        <v>9.56528475610256</v>
+        <v>28.809988</v>
       </c>
       <c r="I9">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="J9">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.45105424940518</v>
+        <v>2.457277</v>
       </c>
       <c r="N9">
-        <v>2.45105424940518</v>
+        <v>7.371831</v>
       </c>
       <c r="O9">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552172</v>
       </c>
       <c r="P9">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552173</v>
       </c>
       <c r="Q9">
-        <v>23.44503184821577</v>
+        <v>23.59804029422533</v>
       </c>
       <c r="R9">
-        <v>23.44503184821577</v>
+        <v>212.382362648028</v>
       </c>
       <c r="S9">
-        <v>0.005222398978158857</v>
+        <v>0.00446024292034638</v>
       </c>
       <c r="T9">
-        <v>0.005222398978158857</v>
+        <v>0.004460242920346382</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.56528475610256</v>
+        <v>9.603329333333333</v>
       </c>
       <c r="H10">
-        <v>9.56528475610256</v>
+        <v>28.809988</v>
       </c>
       <c r="I10">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="J10">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.5761310562531</v>
+        <v>19.791731</v>
       </c>
       <c r="N10">
-        <v>18.5761310562531</v>
+        <v>59.375193</v>
       </c>
       <c r="O10">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="P10">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="Q10">
-        <v>177.6859832197411</v>
+        <v>190.0665108697427</v>
       </c>
       <c r="R10">
-        <v>177.6859832197411</v>
+        <v>1710.598597827684</v>
       </c>
       <c r="S10">
-        <v>0.03957969019652013</v>
+        <v>0.03592428858209718</v>
       </c>
       <c r="T10">
-        <v>0.03957969019652013</v>
+        <v>0.03592428858209718</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.56528475610256</v>
+        <v>9.603329333333333</v>
       </c>
       <c r="H11">
-        <v>9.56528475610256</v>
+        <v>28.809988</v>
       </c>
       <c r="I11">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="J11">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.1747794324574</v>
+        <v>24.85018033333334</v>
       </c>
       <c r="N11">
-        <v>24.1747794324574</v>
+        <v>74.55054100000001</v>
       </c>
       <c r="O11">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="P11">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="Q11">
-        <v>231.2386491874265</v>
+        <v>238.6444657337231</v>
       </c>
       <c r="R11">
-        <v>231.2386491874265</v>
+        <v>2147.800191603508</v>
       </c>
       <c r="S11">
-        <v>0.05150858796206555</v>
+        <v>0.04510596115174679</v>
       </c>
       <c r="T11">
-        <v>0.05150858796206555</v>
+        <v>0.0451059611517468</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.56528475610256</v>
+        <v>9.603329333333333</v>
       </c>
       <c r="H12">
-        <v>9.56528475610256</v>
+        <v>28.809988</v>
       </c>
       <c r="I12">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="J12">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.42267588931362</v>
+        <v>7.452280999999999</v>
       </c>
       <c r="N12">
-        <v>7.42267588931362</v>
+        <v>22.356843</v>
       </c>
       <c r="O12">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="P12">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="Q12">
-        <v>71.00000853354159</v>
+        <v>71.56670872754266</v>
       </c>
       <c r="R12">
-        <v>71.00000853354159</v>
+        <v>644.1003785478839</v>
       </c>
       <c r="S12">
-        <v>0.01581530681704132</v>
+        <v>0.01352675484720764</v>
       </c>
       <c r="T12">
-        <v>0.01581530681704132</v>
+        <v>0.01352675484720764</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.56528475610256</v>
+        <v>9.603329333333333</v>
       </c>
       <c r="H13">
-        <v>9.56528475610256</v>
+        <v>28.809988</v>
       </c>
       <c r="I13">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="J13">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.78654529657293</v>
+        <v>2.960099333333333</v>
       </c>
       <c r="N13">
-        <v>2.78654529657293</v>
+        <v>8.880298</v>
       </c>
       <c r="O13">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632052</v>
       </c>
       <c r="P13">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632051</v>
       </c>
       <c r="Q13">
-        <v>26.65409924749834</v>
+        <v>28.42680875738045</v>
       </c>
       <c r="R13">
-        <v>26.65409924749834</v>
+        <v>255.841278816424</v>
       </c>
       <c r="S13">
-        <v>0.005937221223458198</v>
+        <v>0.005372923807540641</v>
       </c>
       <c r="T13">
-        <v>0.005937221223458198</v>
+        <v>0.005372923807540641</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.181937509479059</v>
+        <v>8.838605666666668</v>
       </c>
       <c r="H14">
-        <v>8.181937509479059</v>
+        <v>26.515817</v>
       </c>
       <c r="I14">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="J14">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.3018257750136</v>
+        <v>64.44050866666667</v>
       </c>
       <c r="N14">
-        <v>54.3018257750136</v>
+        <v>193.321526</v>
       </c>
       <c r="O14">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="P14">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="Q14">
-        <v>444.2941451417806</v>
+        <v>569.5642450640826</v>
       </c>
       <c r="R14">
-        <v>444.2941451417806</v>
+        <v>5126.078205576742</v>
       </c>
       <c r="S14">
-        <v>0.09896686447738723</v>
+        <v>0.1076527906578397</v>
       </c>
       <c r="T14">
-        <v>0.09896686447738723</v>
+        <v>0.1076527906578397</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.181937509479059</v>
+        <v>8.838605666666668</v>
       </c>
       <c r="H15">
-        <v>8.181937509479059</v>
+        <v>26.515817</v>
       </c>
       <c r="I15">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="J15">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.45105424940518</v>
+        <v>2.457277</v>
       </c>
       <c r="N15">
-        <v>2.45105424940518</v>
+        <v>7.371831</v>
       </c>
       <c r="O15">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552172</v>
       </c>
       <c r="P15">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552173</v>
       </c>
       <c r="Q15">
-        <v>20.05437270097628</v>
+        <v>21.71890241676967</v>
       </c>
       <c r="R15">
-        <v>20.05437270097628</v>
+        <v>195.470121750927</v>
       </c>
       <c r="S15">
-        <v>0.004467127030546807</v>
+        <v>0.004105068875816617</v>
       </c>
       <c r="T15">
-        <v>0.004467127030546807</v>
+        <v>0.004105068875816618</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.181937509479059</v>
+        <v>8.838605666666668</v>
       </c>
       <c r="H16">
-        <v>8.181937509479059</v>
+        <v>26.515817</v>
       </c>
       <c r="I16">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="J16">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.5761310562531</v>
+        <v>19.791731</v>
       </c>
       <c r="N16">
-        <v>18.5761310562531</v>
+        <v>59.375193</v>
       </c>
       <c r="O16">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="P16">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="Q16">
-        <v>151.9887434701561</v>
+        <v>174.9313057697424</v>
       </c>
       <c r="R16">
-        <v>151.9887434701561</v>
+        <v>1574.381751927681</v>
       </c>
       <c r="S16">
-        <v>0.03385561016632178</v>
+        <v>0.0330635980097624</v>
       </c>
       <c r="T16">
-        <v>0.03385561016632178</v>
+        <v>0.0330635980097624</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.181937509479059</v>
+        <v>8.838605666666668</v>
       </c>
       <c r="H17">
-        <v>8.181937509479059</v>
+        <v>26.515817</v>
       </c>
       <c r="I17">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="J17">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.1747794324574</v>
+        <v>24.85018033333334</v>
       </c>
       <c r="N17">
-        <v>24.1747794324574</v>
+        <v>74.55054100000001</v>
       </c>
       <c r="O17">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="P17">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="Q17">
-        <v>197.7965346218061</v>
+        <v>219.6409447118886</v>
       </c>
       <c r="R17">
-        <v>197.7965346218061</v>
+        <v>1976.768502406997</v>
       </c>
       <c r="S17">
-        <v>0.04405933107618683</v>
+        <v>0.04151412390414141</v>
       </c>
       <c r="T17">
-        <v>0.04405933107618683</v>
+        <v>0.04151412390414141</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.181937509479059</v>
+        <v>8.838605666666668</v>
       </c>
       <c r="H18">
-        <v>8.181937509479059</v>
+        <v>26.515817</v>
       </c>
       <c r="I18">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="J18">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.42267588931362</v>
+        <v>7.452280999999999</v>
       </c>
       <c r="N18">
-        <v>7.42267588931362</v>
+        <v>22.356843</v>
       </c>
       <c r="O18">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="P18">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="Q18">
-        <v>60.73187027948094</v>
+        <v>65.86777307619234</v>
       </c>
       <c r="R18">
-        <v>60.73187027948094</v>
+        <v>592.809957685731</v>
       </c>
       <c r="S18">
-        <v>0.01352807107887869</v>
+        <v>0.01244960449592762</v>
       </c>
       <c r="T18">
-        <v>0.01352807107887869</v>
+        <v>0.01244960449592762</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.181937509479059</v>
+        <v>8.838605666666668</v>
       </c>
       <c r="H19">
-        <v>8.181937509479059</v>
+        <v>26.515817</v>
       </c>
       <c r="I19">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="J19">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.78654529657293</v>
+        <v>2.960099333333333</v>
       </c>
       <c r="N19">
-        <v>2.78654529657293</v>
+        <v>8.880298</v>
       </c>
       <c r="O19">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632052</v>
       </c>
       <c r="P19">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632051</v>
       </c>
       <c r="Q19">
-        <v>22.79933948389251</v>
+        <v>26.16315074149623</v>
       </c>
       <c r="R19">
-        <v>22.79933948389251</v>
+        <v>235.468356673466</v>
       </c>
       <c r="S19">
-        <v>0.005078570504583829</v>
+        <v>0.00494507198113692</v>
       </c>
       <c r="T19">
-        <v>0.005078570504583829</v>
+        <v>0.00494507198113692</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.83490847231039</v>
+        <v>9.165733666666668</v>
       </c>
       <c r="H20">
-        <v>8.83490847231039</v>
+        <v>27.497201</v>
       </c>
       <c r="I20">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294958</v>
       </c>
       <c r="J20">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294959</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>54.3018257750136</v>
+        <v>64.44050866666667</v>
       </c>
       <c r="N20">
-        <v>54.3018257750136</v>
+        <v>193.321526</v>
       </c>
       <c r="O20">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="P20">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="Q20">
-        <v>479.7516606015903</v>
+        <v>590.6445397831919</v>
       </c>
       <c r="R20">
-        <v>479.7516606015903</v>
+        <v>5315.800858048727</v>
       </c>
       <c r="S20">
-        <v>0.1068650534712936</v>
+        <v>0.111637156906368</v>
       </c>
       <c r="T20">
-        <v>0.1068650534712936</v>
+        <v>0.111637156906368</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.83490847231039</v>
+        <v>9.165733666666668</v>
       </c>
       <c r="H21">
-        <v>8.83490847231039</v>
+        <v>27.497201</v>
       </c>
       <c r="I21">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294958</v>
       </c>
       <c r="J21">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294959</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.45105424940518</v>
+        <v>2.457277</v>
       </c>
       <c r="N21">
-        <v>2.45105424940518</v>
+        <v>7.371831</v>
       </c>
       <c r="O21">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552172</v>
       </c>
       <c r="P21">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552173</v>
       </c>
       <c r="Q21">
-        <v>21.65483995416221</v>
+        <v>22.52274652722567</v>
       </c>
       <c r="R21">
-        <v>21.65483995416221</v>
+        <v>202.704718745031</v>
       </c>
       <c r="S21">
-        <v>0.004823632349103283</v>
+        <v>0.0042570026787096</v>
       </c>
       <c r="T21">
-        <v>0.004823632349103283</v>
+        <v>0.004257002678709602</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.83490847231039</v>
+        <v>9.165733666666668</v>
       </c>
       <c r="H22">
-        <v>8.83490847231039</v>
+        <v>27.497201</v>
       </c>
       <c r="I22">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294958</v>
       </c>
       <c r="J22">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294959</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.5761310562531</v>
+        <v>19.791731</v>
       </c>
       <c r="N22">
-        <v>18.5761310562531</v>
+        <v>59.375193</v>
       </c>
       <c r="O22">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="P22">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="Q22">
-        <v>164.1184176516387</v>
+        <v>181.4057351483104</v>
       </c>
       <c r="R22">
-        <v>164.1184176516387</v>
+        <v>1632.651616334793</v>
       </c>
       <c r="S22">
-        <v>0.03655750447215508</v>
+        <v>0.03428732368524177</v>
       </c>
       <c r="T22">
-        <v>0.03655750447215508</v>
+        <v>0.03428732368524178</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.83490847231039</v>
+        <v>9.165733666666668</v>
       </c>
       <c r="H23">
-        <v>8.83490847231039</v>
+        <v>27.497201</v>
       </c>
       <c r="I23">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294958</v>
       </c>
       <c r="J23">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294959</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.1747794324574</v>
+        <v>24.85018033333334</v>
       </c>
       <c r="N23">
-        <v>24.1747794324574</v>
+        <v>74.55054100000001</v>
       </c>
       <c r="O23">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="P23">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="Q23">
-        <v>213.5819636240528</v>
+        <v>227.7701345039713</v>
       </c>
       <c r="R23">
-        <v>213.5819636240528</v>
+        <v>2049.931210535742</v>
       </c>
       <c r="S23">
-        <v>0.04757554759595268</v>
+        <v>0.0430506142552983</v>
       </c>
       <c r="T23">
-        <v>0.04757554759595268</v>
+        <v>0.04305061425529831</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.83490847231039</v>
+        <v>9.165733666666668</v>
       </c>
       <c r="H24">
-        <v>8.83490847231039</v>
+        <v>27.497201</v>
       </c>
       <c r="I24">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294958</v>
       </c>
       <c r="J24">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294959</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.42267588931362</v>
+        <v>7.452280999999999</v>
       </c>
       <c r="N24">
-        <v>7.42267588931362</v>
+        <v>22.356843</v>
       </c>
       <c r="O24">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="P24">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="Q24">
-        <v>65.57866210171096</v>
+        <v>68.30562285516034</v>
       </c>
       <c r="R24">
-        <v>65.57866210171096</v>
+        <v>614.750605696443</v>
       </c>
       <c r="S24">
-        <v>0.01460769770611609</v>
+        <v>0.01291038014008867</v>
       </c>
       <c r="T24">
-        <v>0.01460769770611609</v>
+        <v>0.01291038014008867</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.83490847231039</v>
+        <v>9.165733666666668</v>
       </c>
       <c r="H25">
-        <v>8.83490847231039</v>
+        <v>27.497201</v>
       </c>
       <c r="I25">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294958</v>
       </c>
       <c r="J25">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294959</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.78654529657293</v>
+        <v>2.960099333333333</v>
       </c>
       <c r="N25">
-        <v>2.78654529657293</v>
+        <v>8.880298</v>
       </c>
       <c r="O25">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632052</v>
       </c>
       <c r="P25">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632051</v>
       </c>
       <c r="Q25">
-        <v>24.61887264916885</v>
+        <v>27.13148211621089</v>
       </c>
       <c r="R25">
-        <v>24.61887264916885</v>
+        <v>244.183339045898</v>
       </c>
       <c r="S25">
-        <v>0.005483872924498796</v>
+        <v>0.005128095363789473</v>
       </c>
       <c r="T25">
-        <v>0.005483872924498796</v>
+        <v>0.005128095363789473</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.36919282447319</v>
+        <v>5.455266333333333</v>
       </c>
       <c r="H26">
-        <v>5.36919282447319</v>
+        <v>16.365799</v>
       </c>
       <c r="I26">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="J26">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>54.3018257750136</v>
+        <v>64.44050866666667</v>
       </c>
       <c r="N26">
-        <v>54.3018257750136</v>
+        <v>193.321526</v>
       </c>
       <c r="O26">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="P26">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="Q26">
-        <v>291.5569733069963</v>
+        <v>351.5401374321416</v>
       </c>
       <c r="R26">
-        <v>291.5569733069963</v>
+        <v>3163.861236889274</v>
       </c>
       <c r="S26">
-        <v>0.06494454131395956</v>
+        <v>0.06644426357653932</v>
       </c>
       <c r="T26">
-        <v>0.06494454131395956</v>
+        <v>0.06644426357653932</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.36919282447319</v>
+        <v>5.455266333333333</v>
       </c>
       <c r="H27">
-        <v>5.36919282447319</v>
+        <v>16.365799</v>
       </c>
       <c r="I27">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="J27">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.45105424940518</v>
+        <v>2.457277</v>
       </c>
       <c r="N27">
-        <v>2.45105424940518</v>
+        <v>7.371831</v>
       </c>
       <c r="O27">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552172</v>
       </c>
       <c r="P27">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552173</v>
       </c>
       <c r="Q27">
-        <v>13.16018288830081</v>
+        <v>13.40510048977433</v>
       </c>
       <c r="R27">
-        <v>13.16018288830081</v>
+        <v>120.645904407969</v>
       </c>
       <c r="S27">
-        <v>0.002931440917341992</v>
+        <v>0.002533685162436093</v>
       </c>
       <c r="T27">
-        <v>0.002931440917341992</v>
+        <v>0.002533685162436093</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.36919282447319</v>
+        <v>5.455266333333333</v>
       </c>
       <c r="H28">
-        <v>5.36919282447319</v>
+        <v>16.365799</v>
       </c>
       <c r="I28">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="J28">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>18.5761310562531</v>
+        <v>19.791731</v>
       </c>
       <c r="N28">
-        <v>18.5761310562531</v>
+        <v>59.375193</v>
       </c>
       <c r="O28">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="P28">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="Q28">
-        <v>99.73882957370773</v>
+        <v>107.9691638026897</v>
       </c>
       <c r="R28">
-        <v>99.73882957370773</v>
+        <v>971.722474224207</v>
       </c>
       <c r="S28">
-        <v>0.0222169014322807</v>
+        <v>0.02040714790136662</v>
       </c>
       <c r="T28">
-        <v>0.0222169014322807</v>
+        <v>0.02040714790136662</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.36919282447319</v>
+        <v>5.455266333333333</v>
       </c>
       <c r="H29">
-        <v>5.36919282447319</v>
+        <v>16.365799</v>
       </c>
       <c r="I29">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="J29">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>24.1747794324574</v>
+        <v>24.85018033333334</v>
       </c>
       <c r="N29">
-        <v>24.1747794324574</v>
+        <v>74.55054100000001</v>
       </c>
       <c r="O29">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="P29">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="Q29">
-        <v>129.7990522619723</v>
+        <v>135.5643521496955</v>
       </c>
       <c r="R29">
-        <v>129.7990522619723</v>
+        <v>1220.079169347259</v>
       </c>
       <c r="S29">
-        <v>0.02891283928669517</v>
+        <v>0.02562288793425726</v>
       </c>
       <c r="T29">
-        <v>0.02891283928669517</v>
+        <v>0.02562288793425726</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.36919282447319</v>
+        <v>5.455266333333333</v>
       </c>
       <c r="H30">
-        <v>5.36919282447319</v>
+        <v>16.365799</v>
       </c>
       <c r="I30">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="J30">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.42267588931362</v>
+        <v>7.452280999999999</v>
       </c>
       <c r="N30">
-        <v>7.42267588931362</v>
+        <v>22.356843</v>
       </c>
       <c r="O30">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="P30">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="Q30">
-        <v>39.85377812329284</v>
+        <v>40.65417764583966</v>
       </c>
       <c r="R30">
-        <v>39.85377812329284</v>
+        <v>365.8875988125569</v>
       </c>
       <c r="S30">
-        <v>0.008877459902563271</v>
+        <v>0.007684007051709843</v>
       </c>
       <c r="T30">
-        <v>0.008877459902563271</v>
+        <v>0.007684007051709843</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.36919282447319</v>
+        <v>5.455266333333333</v>
       </c>
       <c r="H31">
-        <v>5.36919282447319</v>
+        <v>16.365799</v>
       </c>
       <c r="I31">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="J31">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.78654529657293</v>
+        <v>2.960099333333333</v>
       </c>
       <c r="N31">
-        <v>2.78654529657293</v>
+        <v>8.880298</v>
       </c>
       <c r="O31">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632052</v>
       </c>
       <c r="P31">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632051</v>
       </c>
       <c r="Q31">
-        <v>14.96149901142889</v>
+        <v>16.14813023645578</v>
       </c>
       <c r="R31">
-        <v>14.96149901142889</v>
+        <v>145.333172128102</v>
       </c>
       <c r="S31">
-        <v>0.003332685477028144</v>
+        <v>0.003052142579043241</v>
       </c>
       <c r="T31">
-        <v>0.003332685477028144</v>
+        <v>0.00305214257904324</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.71416142642796</v>
+        <v>5.085742333333333</v>
       </c>
       <c r="H32">
-        <v>4.71416142642796</v>
+        <v>15.257227</v>
       </c>
       <c r="I32">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="J32">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>54.3018257750136</v>
+        <v>64.44050866666667</v>
       </c>
       <c r="N32">
-        <v>54.3018257750136</v>
+        <v>193.321526</v>
       </c>
       <c r="O32">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="P32">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="Q32">
-        <v>255.9875724531807</v>
+        <v>327.7278229076002</v>
       </c>
       <c r="R32">
-        <v>255.9875724531807</v>
+        <v>2949.550406168402</v>
       </c>
       <c r="S32">
-        <v>0.05702142976199866</v>
+        <v>0.06194352088981982</v>
       </c>
       <c r="T32">
-        <v>0.05702142976199866</v>
+        <v>0.06194352088981982</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.71416142642796</v>
+        <v>5.085742333333333</v>
       </c>
       <c r="H33">
-        <v>4.71416142642796</v>
+        <v>15.257227</v>
       </c>
       <c r="I33">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="J33">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.45105424940518</v>
+        <v>2.457277</v>
       </c>
       <c r="N33">
-        <v>2.45105424940518</v>
+        <v>7.371831</v>
       </c>
       <c r="O33">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552172</v>
       </c>
       <c r="P33">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552173</v>
       </c>
       <c r="Q33">
-        <v>11.55466539662824</v>
+        <v>12.49707766362633</v>
       </c>
       <c r="R33">
-        <v>11.55466539662824</v>
+        <v>112.473698972637</v>
       </c>
       <c r="S33">
-        <v>0.002573810654256419</v>
+        <v>0.002362060640596853</v>
       </c>
       <c r="T33">
-        <v>0.002573810654256419</v>
+        <v>0.002362060640596854</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.71416142642796</v>
+        <v>5.085742333333333</v>
       </c>
       <c r="H34">
-        <v>4.71416142642796</v>
+        <v>15.257227</v>
       </c>
       <c r="I34">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="J34">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>18.5761310562531</v>
+        <v>19.791731</v>
       </c>
       <c r="N34">
-        <v>18.5761310562531</v>
+        <v>59.375193</v>
       </c>
       <c r="O34">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="P34">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="Q34">
-        <v>87.57088047765885</v>
+        <v>100.6556441966457</v>
       </c>
       <c r="R34">
-        <v>87.57088047765885</v>
+        <v>905.9007977698111</v>
       </c>
       <c r="S34">
-        <v>0.01950648135962336</v>
+        <v>0.01902482658828476</v>
       </c>
       <c r="T34">
-        <v>0.01950648135962336</v>
+        <v>0.01902482658828476</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.71416142642796</v>
+        <v>5.085742333333333</v>
       </c>
       <c r="H35">
-        <v>4.71416142642796</v>
+        <v>15.257227</v>
       </c>
       <c r="I35">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="J35">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>24.1747794324574</v>
+        <v>24.85018033333334</v>
       </c>
       <c r="N35">
-        <v>24.1747794324574</v>
+        <v>74.55054100000001</v>
       </c>
       <c r="O35">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="P35">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="Q35">
-        <v>113.9638126928947</v>
+        <v>126.3816141122008</v>
       </c>
       <c r="R35">
-        <v>113.9638126928947</v>
+        <v>1137.434527009807</v>
       </c>
       <c r="S35">
-        <v>0.02538552742464089</v>
+        <v>0.02388726744160331</v>
       </c>
       <c r="T35">
-        <v>0.02538552742464089</v>
+        <v>0.02388726744160332</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.71416142642796</v>
+        <v>5.085742333333333</v>
       </c>
       <c r="H36">
-        <v>4.71416142642796</v>
+        <v>15.257227</v>
       </c>
       <c r="I36">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="J36">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.42267588931362</v>
+        <v>7.452280999999999</v>
       </c>
       <c r="N36">
-        <v>7.42267588931362</v>
+        <v>22.356843</v>
       </c>
       <c r="O36">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="P36">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="Q36">
-        <v>34.99169235827912</v>
+        <v>37.90038096159566</v>
       </c>
       <c r="R36">
-        <v>34.99169235827912</v>
+        <v>341.103428654361</v>
       </c>
       <c r="S36">
-        <v>0.007794426537741429</v>
+        <v>0.007163514586580087</v>
       </c>
       <c r="T36">
-        <v>0.007794426537741429</v>
+        <v>0.007163514586580088</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.71416142642796</v>
+        <v>5.085742333333333</v>
       </c>
       <c r="H37">
-        <v>4.71416142642796</v>
+        <v>15.257227</v>
       </c>
       <c r="I37">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="J37">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.78654529657293</v>
+        <v>2.960099333333333</v>
       </c>
       <c r="N37">
-        <v>2.78654529657293</v>
+        <v>8.880298</v>
       </c>
       <c r="O37">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632052</v>
       </c>
       <c r="P37">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632051</v>
       </c>
       <c r="Q37">
-        <v>13.13622435009837</v>
+        <v>15.05430249040511</v>
       </c>
       <c r="R37">
-        <v>13.13622435009837</v>
+        <v>135.488722413646</v>
       </c>
       <c r="S37">
-        <v>0.002926104134426247</v>
+        <v>0.002845399247835573</v>
       </c>
       <c r="T37">
-        <v>0.002926104134426247</v>
+        <v>0.002845399247835573</v>
       </c>
     </row>
   </sheetData>
